--- a/Shading Trees/Charts/Value Added Change by Commodities.xlsx
+++ b/Shading Trees/Charts/Value Added Change by Commodities.xlsx
@@ -14,34 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Margins</t>
-  </si>
-  <si>
-    <t>Labor - Skilled</t>
-  </si>
-  <si>
-    <t>Labor - Semi Skilled</t>
-  </si>
-  <si>
-    <t>Labor - Unskilled</t>
-  </si>
-  <si>
-    <t>Capital - Land</t>
-  </si>
-  <si>
-    <t>Capital - Livestock</t>
-  </si>
-  <si>
-    <t>Capital - Agriculture</t>
-  </si>
-  <si>
-    <t>Capital - Machines</t>
-  </si>
-  <si>
-    <t>Taxes</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Import</t>
   </si>
@@ -431,392 +404,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:2">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B2">
+        <v>-359.4571904971363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B3">
+        <v>-17.20673117170234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="B4">
+        <v>-62.80314074832154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5">
+        <v>4.718364893673304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="B6">
+        <v>-0.8691198230117008</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="B7">
+        <v>-397.6777495080987</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="B8">
+        <v>-813.5592349245453</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="B9">
+        <v>-313.367690105671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+      <c r="B10">
+        <v>-729.2084817172342</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2">
-        <v>-0.007752622972475365</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>-0.002604002482257783</v>
-      </c>
-      <c r="K2">
-        <v>-0.00714910592068918</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3">
-        <v>-6.929464507265948e-05</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>-5.156423640073626e-06</v>
-      </c>
-      <c r="K3">
-        <v>-0.0003421036308282055</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4">
-        <v>-0.0002435607166262344</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>-0.0004728716230602004</v>
-      </c>
-      <c r="K4">
-        <v>-0.001250496716238558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>5.864965601176664e-05</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>3.497084122727756e-06</v>
-      </c>
-      <c r="K5">
-        <v>9.342664679934387e-05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6">
-        <v>-9.058906471182127e-05</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>-1.727982430566044e-05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7">
-        <v>-0.0004253731676726602</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>-0.00233809748897329</v>
-      </c>
-      <c r="K7">
-        <v>-0.007906979531981051</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>-0.0005109697522129864</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>-0.001052026549587026</v>
-      </c>
-      <c r="K8">
-        <v>-0.01617865270236507</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>-0.0003046770087848927</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>-0.006232706826267531</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10">
-        <v>-0.0006834209780208766</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>-0.001734239689540118</v>
-      </c>
-      <c r="K10">
-        <v>-0.01449928298825398</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>-0.0001159798193839379</v>
-      </c>
-      <c r="K11">
-        <v>-0.0007401023030979559</v>
+        <v>-37.21311317774656</v>
       </c>
     </row>
   </sheetData>
